--- a/Functionalities/Stock/data/dummy_kg2box.xlsx
+++ b/Functionalities/Stock/data/dummy_kg2box.xlsx
@@ -14,12 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>box_type</t>
-  </si>
-  <si>
-    <t>boxes_per_10kg</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+  <si>
+    <t>BOX TYPE</t>
+  </si>
+  <si>
+    <t>BOXES PER 10KG</t>
   </si>
   <si>
     <t>CGA8F1</t>
@@ -32,6 +32,9 @@
   </si>
   <si>
     <t>PGMC2</t>
+  </si>
+  <si>
+    <t>PGMCJ</t>
   </si>
 </sst>
 </file>
@@ -389,7 +392,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -435,6 +438,14 @@
         <v>5</v>
       </c>
     </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
